--- a/문서자료/02. 문서 작성 첨부자료/프로젝트B 발표 첨부자료 2020-09-08 세부일정추진계획표.xlsx
+++ b/문서자료/02. 문서 작성 첨부자료/프로젝트B 발표 첨부자료 2020-09-08 세부일정추진계획표.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,22 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WBS작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착수보고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트수행계획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컬렉션구조설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그램설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,26 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컬렉션구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트 시험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험실시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템오픈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +183,18 @@
   </si>
   <si>
     <t>2020.09.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계횟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면구조설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -733,33 +713,35 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>8</v>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -770,7 +752,7 @@
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
@@ -780,160 +762,111 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="5"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
+  <mergeCells count="8">
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -962,142 +895,142 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1"/>
     </row>
